--- a/ProbabilityAndStatistics/Probabilidad y estadistica.xlsx
+++ b/ProbabilityAndStatistics/Probabilidad y estadistica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0DB533-53B8-4562-AACB-9C9878376E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E38CF-87A2-448F-88EB-3B56C3825C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{7D17BF13-03BB-4829-9005-FB31BB789362}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$31:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <r>
       <t>x</t>
@@ -146,6 +146,45 @@
   </si>
   <si>
     <t>muestra</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Coeficiente de variacion</t>
+  </si>
+  <si>
+    <t>El coeficiente de variacion quiere decir que los datos varian 0.44 unidades por cada unidad que varie la media</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>todos los datos</t>
+  </si>
+  <si>
+    <t>percentiles</t>
+  </si>
+  <si>
+    <t>cada cuartil estara compuesto por 5  datos</t>
+  </si>
+  <si>
+    <t>n/4</t>
+  </si>
+  <si>
+    <t>encuestada</t>
+  </si>
+  <si>
+    <t>hijos</t>
+  </si>
+  <si>
+    <t>cuartiles</t>
+  </si>
+  <si>
+    <t>1.- alrededor del 25% de las mujeres encuestadas no han tenido hijos</t>
+  </si>
+  <si>
+    <t>2.- alrededor del 50% de las muejeres tienen uno o menos hijos</t>
   </si>
 </sst>
 </file>
@@ -169,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +221,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -228,11 +291,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +350,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,17 +738,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC645E9-9AC3-488F-ADA2-DA63F59E175E}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
@@ -663,7 +820,7 @@
       </c>
       <c r="F3" s="5">
         <f>COUNTIF(B:B,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -830,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -842,7 +999,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -856,7 +1013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -872,12 +1029,412 @@
         <v>2.2677868380553634</v>
       </c>
     </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="6">
+        <f>I19/ABS(E1)</f>
+        <v>0.44095855184409843</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6">
+        <f>I22*100</f>
+        <v>44.095855184409842</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>16</v>
+      </c>
+      <c r="R28" s="1">
+        <v>17</v>
+      </c>
+      <c r="S28" s="1">
+        <v>18</v>
+      </c>
+      <c r="T28" s="1">
+        <v>19</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7">
+        <f>20/4</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="F39" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="F40" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>12</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>14</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>18</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>13</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>16</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>17</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2</v>
+      </c>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>19</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>11</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3</v>
+      </c>
+      <c r="D50" s="22"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>7</v>
+      </c>
+      <c r="C51" s="11">
+        <v>4</v>
+      </c>
+      <c r="D51" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B8" xr:uid="{5AC645E9-9AC3-488F-ADA2-DA63F59E175E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
-      <sortCondition ref="A1:A8"/>
+  <autoFilter ref="B31:D31" xr:uid="{5AC645E9-9AC3-488F-ADA2-DA63F59E175E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B32:D51">
+      <sortCondition ref="C31"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D47:D51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>